--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-701426.1615445953</v>
+        <v>-704002.648165836</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>285.4101008138039</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>265.5754653193671</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.377941887217</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.37794188721856</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>146.646045767313</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>21.43984231765203</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>245.8056267012311</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>289.9322605538781</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>42.67518378263483</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>185.2962194405487</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>3.657500457872745</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>141.7391374253991</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>89.02074538725441</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>58.94047445707056</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365888</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>77.9361200972571</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>91.32784210538742</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.676127120544</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>106.2078024559166</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722629</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9367233701397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>73.74785292486236</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.84155641259323</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>166.3208822291519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>160.678984628204</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,10 +3430,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.761759316041</v>
+        <v>339.5398176930576</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.761759316041</v>
+        <v>339.5398176930576</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.761759316041</v>
+        <v>339.5398176930576</v>
       </c>
       <c r="E2" t="n">
-        <v>740.9735067177967</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>329.9876019281891</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>61.72955615105059</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>61.72955615105059</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2427.157351343576</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2173.576290607756</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1842.513403264185</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1489.744747994071</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1116.278989732991</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126.761759316041</v>
+        <v>726.1396577571793</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908472</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>768.9684762037019</v>
+        <v>1907.721221142423</v>
       </c>
       <c r="C4" t="n">
-        <v>600.032293275795</v>
+        <v>1738.785038214516</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>1588.66839880218</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>1440.755305219787</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>2111.026092354129</v>
       </c>
       <c r="W4" t="n">
-        <v>989.7610553472321</v>
+        <v>2111.026092354129</v>
       </c>
       <c r="X4" t="n">
-        <v>989.7610553472321</v>
+        <v>2111.026092354129</v>
       </c>
       <c r="Y4" t="n">
-        <v>768.9684762037019</v>
+        <v>2089.369685972662</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>1072.029036224761</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.5121164321834</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1380.905344997287</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1126.2208567914</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1126.2208567914</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.024991420848</v>
+        <v>898.2313058933829</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>677.4387267498528</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2051.278283189674</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1682.315766249263</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1324.050067642512</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E8" t="n">
-        <v>938.2618150442679</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>527.2759102546604</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>112.2034600996569</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>1555.338782035317</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.89460572423</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4999,13 +4999,13 @@
         <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.676735765777</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.68718486776</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.89460572423</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327675</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048606</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>444.7013164925248</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101317</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122214</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704555</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806537</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630072</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,10 +5367,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>800.5007694647295</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>631.5645865368226</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>481.4479471244869</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>481.4479471244869</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1885.210734949511</v>
+        <v>1975.033022579364</v>
       </c>
       <c r="V16" t="n">
-        <v>1630.526246743624</v>
+        <v>1720.348534373477</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.109076706663</v>
+        <v>1430.931364336517</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.119525808646</v>
+        <v>1202.941813438499</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>982.1492342949692</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>639.6425904082686</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>470.7064074803617</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2305.424599100479</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.927936255316</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>300.0149148245548</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1809.460189369951</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.775701164064</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.358531127103</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1037.368980229086</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855557</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>256.1186677229255</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,22 +7351,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,25 +7564,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.3692565058948</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,13 +22553,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>96.52026925845787</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>145.9722374535868</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.0033420516619</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856639</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>67.48492792567414</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.15585306139329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.1976478713717</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>107.2784330767822</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>101.6825818796756</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.84515366406481</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1019872.46466656</v>
+        <v>1019872.464666559</v>
       </c>
     </row>
     <row r="3">
@@ -26320,16 +26320,16 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="F2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="F2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291438</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63651.90411497882</v>
+        <v>63651.90411497875</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768839</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768925</v>
-      </c>
       <c r="J4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26448,13 +26448,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486239</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1064070.340005274</v>
+        <v>-1064395.685095555</v>
       </c>
       <c r="C6" t="n">
-        <v>-154194.3303073344</v>
+        <v>-154194.3303073345</v>
       </c>
       <c r="D6" t="n">
-        <v>49244.41130477155</v>
+        <v>49244.41130477149</v>
       </c>
       <c r="E6" t="n">
-        <v>-194338.1560460293</v>
+        <v>-194372.8939714654</v>
       </c>
       <c r="F6" t="n">
-        <v>131074.3057613259</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="G6" t="n">
-        <v>131074.3057613256</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="H6" t="n">
-        <v>131074.305761326</v>
+        <v>131039.5678358902</v>
       </c>
       <c r="I6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="J6" t="n">
-        <v>-36530.87204865678</v>
+        <v>-36565.6099740925</v>
       </c>
       <c r="K6" t="n">
-        <v>81964.21305527141</v>
+        <v>81929.47512983569</v>
       </c>
       <c r="L6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="M6" t="n">
-        <v>20727.66559136347</v>
+        <v>20727.66559136346</v>
       </c>
       <c r="N6" t="n">
+        <v>125210.4115205069</v>
+      </c>
+      <c r="O6" t="n">
         <v>125210.4115205072</v>
-      </c>
-      <c r="O6" t="n">
-        <v>125210.411520507</v>
       </c>
       <c r="P6" t="n">
         <v>125210.4115205072</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>55.33197078525349</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>196.2802430930152</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.969427250899372</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.1448110344428</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>108.8774149194519</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>116.9437851878334</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>243.536654422978</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>40.41343594848843</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>290.9502639294477</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>244.4988012306545</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>78.22607571137343</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>166.7691809319666</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681222</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
